--- a/SemiSupervised/models/test_DSC_report_Fullysupervised.xlsx
+++ b/SemiSupervised/models/test_DSC_report_Fullysupervised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0.sharepoint.com/sites/DentalAI/Shared Documents/Données/Data to publish/Experiment/Code/FullySupervised/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_Repository\Teeth-Segmentation\SemiSupervised\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B0226932-88C2-44F4-8618-5A8C89132FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A129378D-18FD-488E-BB06-EAEB1F9C50A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA84A6-F2B5-436D-A8A4-95F0CB9D27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>label 1</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Upper004C_labeled_original_tol0_5_decimated_msn_registered.vtp</t>
-  </si>
-  <si>
-    <t>Upper014Caligned_missing_15_24_decimated_msn_registered.vtp</t>
   </si>
   <si>
     <t>Upper022C_labeled_original_tol0_5_decimated_msn_registered.vtp</t>
@@ -952,15 +949,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F3D01A-E5C4-48C6-943B-1840AA29E7C5}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
@@ -1119,13 +1116,13 @@
         <v>0.75159602999999997</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P8" si="0">AVERAGE(B3:O3)</f>
+        <f t="shared" ref="P3:P7" si="0">AVERAGE(B3:O3)</f>
         <v>0.62183725712857141</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.87384790000000001</v>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>7.5930140000000001E-4</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>8.375209E-4</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.62524396000000004</v>
@@ -1328,54 +1325,15 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.71976244</v>
-      </c>
-      <c r="C8">
-        <v>0.9502178</v>
-      </c>
-      <c r="D8">
-        <v>1.4492754E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.88472620000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.83747930000000004</v>
-      </c>
-      <c r="G8">
-        <v>0.34375</v>
-      </c>
-      <c r="H8">
-        <v>0.67915904999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.83568679999999995</v>
-      </c>
-      <c r="J8">
-        <v>0.88061800000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.23547399999999999</v>
-      </c>
-      <c r="L8">
-        <v>2.9154519999999998E-3</v>
-      </c>
-      <c r="M8">
-        <v>0.91512512999999995</v>
-      </c>
-      <c r="N8">
-        <v>0.93578640000000002</v>
-      </c>
-      <c r="O8">
-        <v>0.813253</v>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64631759471428563</v>
+        <f>AVERAGE(P2:P7)</f>
+        <v>0.63691422321666669</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,20 +1344,8 @@
         <v>21</v>
       </c>
       <c r="P9" s="1">
-        <f>AVERAGE(P2:P8)</f>
-        <v>0.63825756200204076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="1">
-        <f>STDEV(P2:P8)</f>
-        <v>0.10521520332372093</v>
+        <f>STDEV(P2:P7)</f>
+        <v>0.11519170333043509</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +1361,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB2D14D3E42FA349ACA0F9DCF9043797" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4467341d6b468864ead95f2b99b1f554">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cfe3adb-873c-4c91-8f2d-4db4c4f2a5b3" xmlns:ns3="f32f6be6-230a-42af-ad1a-92475d1cd4e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="353922f97f341cf9f6153e6dacf2d86e" ns2:_="" ns3:_="">
     <xsd:import namespace="0cfe3adb-873c-4c91-8f2d-4db4c4f2a5b3"/>
@@ -1631,15 +1586,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23BA3F69-84A1-44CD-98F8-1EA1A038336E}">
   <ds:schemaRefs>
@@ -1650,6 +1596,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C8F6D4-D4F3-429A-A6C3-978F373703CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7168800C-5F19-4D53-ABA9-BBF8CDD9C7D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1666,12 +1620,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C8F6D4-D4F3-429A-A6C3-978F373703CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>